--- a/output.xlsx
+++ b/output.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="137">
   <si>
     <t>Monday</t>
   </si>
@@ -44,63 +44,63 @@
     <t>Course 1</t>
   </si>
   <si>
+    <t>Course 3</t>
+  </si>
+  <si>
+    <t>Course 4</t>
+  </si>
+  <si>
+    <t>Course 5</t>
+  </si>
+  <si>
+    <t>Course 6</t>
+  </si>
+  <si>
+    <t>Course 7</t>
+  </si>
+  <si>
+    <t>Course 8</t>
+  </si>
+  <si>
     <t>Course 2</t>
   </si>
   <si>
-    <t>Course 3</t>
-  </si>
-  <si>
-    <t>Course 4</t>
-  </si>
-  <si>
-    <t>Course 5</t>
-  </si>
-  <si>
-    <t>Course 6</t>
-  </si>
-  <si>
-    <t>Course 7</t>
-  </si>
-  <si>
     <t>17:00:00</t>
   </si>
   <si>
-    <t>Course 8</t>
-  </si>
-  <si>
     <t>Course 9</t>
   </si>
   <si>
+    <t>Course 10</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>8:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
     <t>12:00:00</t>
   </si>
   <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>8:00:00</t>
-  </si>
-  <si>
     <t>16:00:00</t>
   </si>
   <si>
+    <t>10:00:00</t>
+  </si>
+  <si>
     <t>9:00:00</t>
   </si>
   <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
-    <t>Course 10</t>
-  </si>
-  <si>
-    <t>10:00:00</t>
-  </si>
-  <si>
     <t>Course Name</t>
   </si>
   <si>
@@ -176,244 +176,235 @@
     <t>Tut Rooms</t>
   </si>
   <si>
-    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x711535b1f850&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x711535b1f850&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x711535b1f850&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x711535b2bdd0&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x711535b2bdd0&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x711535b2bdd0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x711535b28dd0&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x711535b28dd0&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x711535b28dd0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x711535b29bd0&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x711535b29bd0&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x711535b29bd0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x711535b2a850&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x711535b2a850&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x711535b2a850&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x711535b30290&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x711535b30290&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x711535b30290&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x711535b30d90&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x711535b30d90&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x711535b30d90&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x711535b31810&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x711535b31810&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x711535b32450&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x711535b32450&gt;]}], ['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x711535b32450&gt;]}], ['Thursday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x711535b32450&gt;]}]]</t>
+    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdcba50&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdcba50&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdcba50&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc92d0&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc92d0&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc92d0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc9ad0&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc9ad0&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc9ad0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdd0290&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdd0290&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdd0290&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ab90&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ab90&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ab90&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ad90&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ad90&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ad90&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc73150&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc73150&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc73150&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc95f10&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc95f10&gt;]}], ['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc95f10&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc34d0&gt;]}], ['Tuesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc34d0&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc34d0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdcba50&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc8610&gt;, &lt;classes.Course object at 0x7c7bebdc92d0&gt;, &lt;classes.Course object at 0x7c7bebc6ab90&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc9ad0&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdd0290&gt;, &lt;classes.Course object at 0x7c7bebc73150&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ad90&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc95f10&gt;, &lt;classes.Course object at 0x7c7bebdc34d0&gt;]}</t>
+  </si>
+  <si>
+    <t>['[5', ' 1', ' 3', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[3]']</t>
+  </si>
+  <si>
+    <t>['[4', ' 2', ' 5', ' 1', ' 3]']</t>
+  </si>
+  <si>
+    <t>['[2', ' 5]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 1', ' 4', ' 5', ' 2]']</t>
+  </si>
+  <si>
+    <t>['[2', ' 3', ' 4', ' 5', ' 1]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 2', ' 1]']</t>
+  </si>
+  <si>
+    <t>['[1', ' 3]']</t>
+  </si>
+  <si>
+    <t>['[]']</t>
+  </si>
+  <si>
+    <t>['[4', ' 3', ' 1]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 2', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 2', ' 1', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[4', ' 1]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 1', ' 4', ' 3', ' 2]']</t>
+  </si>
+  <si>
+    <t>['[2', ' 1', ' 5]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 1', ' 4', ' 5]']</t>
+  </si>
+  <si>
+    <t>['[1', ' 3', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 3]']</t>
+  </si>
+  <si>
+    <t>['[1', ' 3', ' 5', ' 4', ' 2]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 3', ' 2]']</t>
+  </si>
+  <si>
+    <t>['[5]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 2', ' 1', ' 3', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[1]']</t>
+  </si>
+  <si>
+    <t>['[4]']</t>
+  </si>
+  <si>
+    <t>['[1', ' 4', ' 3]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 1', ' 2', ' 3]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 2', ' 5', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 2', ' 4', ' 1]']</t>
+  </si>
+  <si>
+    <t>['[1', ' 5', ' 3', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 3', ' 4', ' 1]']</t>
+  </si>
+  <si>
+    <t>['[2', ' 3', ' 4', ' 5]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 5', ' 1', ' 4', ' 2]']</t>
+  </si>
+  <si>
+    <t>['[2', ' 3', ' 1', ' 5', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 2', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[2]']</t>
+  </si>
+  <si>
+    <t>['[4', ' 1', ' 2]']</t>
+  </si>
+  <si>
+    <t>['[2', ' 4', ' 5', ' 1]']</t>
+  </si>
+  <si>
+    <t>['[1', ' 3', ' 2', ' 5]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 5', ' 2]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 1', ' 5]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 3', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[1', ' 2', ' 5', ' 3]']</t>
+  </si>
+  <si>
+    <t>['[4', ' 5', ' 3]']</t>
+  </si>
+  <si>
+    <t>['[1', ' 2', ' 5', ' 3', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 5]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 1', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 4', ' 1', ' 3', ' 2]']</t>
+  </si>
+  <si>
+    <t>['[4', ' 3', ' 1', ' 5', ' 2]']</t>
+  </si>
+  <si>
+    <t>['[1', ' 4', ' 2', ' 3', ' 5]']</t>
+  </si>
+  <si>
+    <t>['[2', ' 3]']</t>
+  </si>
+  <si>
+    <t>['[2', ' 5', ' 3', ' 1', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[2', ' 4', ' 5]']</t>
+  </si>
+  <si>
+    <t>['[5', ' 2', ' 4', ' 1]']</t>
+  </si>
+  <si>
+    <t>['[4', ' 3', ' 1', ' 5]']</t>
+  </si>
+  <si>
+    <t>['[1', ' 3', ' 2]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 1', ' 5', ' 2', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 5', ' 1', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 5', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[2', ' 1', ' 4]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 1]']</t>
+  </si>
+  <si>
+    <t>['[3', ' 4', ' 5]']</t>
   </si>
   <si>
     <t>[]</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x711535b1f850&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x711535b2bdd0&gt;, &lt;classes.Course object at 0x711535b28dd0&gt;, &lt;classes.Course object at 0x711535b30290&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x711535b29bd0&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x711535b2a850&gt;, &lt;classes.Course object at 0x711535b31810&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x711535b30d90&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x711535b32450&gt;, &lt;classes.Course object at 0x711535b32d50&gt;]}</t>
-  </si>
-  <si>
-    <t>['[5', ' 1', ' 3', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[3]']</t>
-  </si>
-  <si>
-    <t>['[4', ' 2', ' 5', ' 1', ' 3]']</t>
-  </si>
-  <si>
-    <t>['[2', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 1', ' 4', ' 5', ' 2]']</t>
-  </si>
-  <si>
-    <t>['[2', ' 3', ' 4', ' 5', ' 1]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 2', ' 1]']</t>
-  </si>
-  <si>
-    <t>['[1', ' 3]']</t>
-  </si>
-  <si>
-    <t>['[]']</t>
-  </si>
-  <si>
-    <t>['[4', ' 3', ' 1]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 2', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 2', ' 1', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[4', ' 1]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 1', ' 4', ' 3', ' 2]']</t>
-  </si>
-  <si>
-    <t>['[2', ' 1', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 1', ' 4', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[1', ' 3', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 3]']</t>
-  </si>
-  <si>
-    <t>['[1', ' 3', ' 5', ' 4', ' 2]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 3', ' 2]']</t>
-  </si>
-  <si>
-    <t>['[5]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 2', ' 1', ' 3', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[1]']</t>
-  </si>
-  <si>
-    <t>['[4]']</t>
-  </si>
-  <si>
-    <t>['[1', ' 4', ' 3]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 1', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 1', ' 2', ' 3]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 2', ' 5', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 2', ' 4', ' 1]']</t>
-  </si>
-  <si>
-    <t>['[1', ' 5', ' 3', ' 4]']</t>
-  </si>
-  <si>
-    <t>[' 3]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 3', ' 4', ' 1]']</t>
-  </si>
-  <si>
-    <t>['[2', ' 3', ' 4', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 5', ' 1', ' 4', ' 2]']</t>
-  </si>
-  <si>
-    <t>['[2', ' 3', ' 1', ' 5', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 2', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[2]']</t>
-  </si>
-  <si>
-    <t>['[4', ' 1', ' 2]']</t>
-  </si>
-  <si>
-    <t>['[2', ' 4', ' 5', ' 1]']</t>
-  </si>
-  <si>
-    <t>['[1', ' 3', ' 2', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 5', ' 2]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 1', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 3', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[1', ' 2', ' 5', ' 3]']</t>
-  </si>
-  <si>
-    <t>[' 5', ' 3]']</t>
-  </si>
-  <si>
-    <t>['[1', ' 2', ' 5', ' 3', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 4', ' 1', ' 3', ' 2]']</t>
-  </si>
-  <si>
-    <t>['[4', ' 3', ' 1', ' 5', ' 2]']</t>
-  </si>
-  <si>
-    <t>['[1', ' 4', ' 2', ' 3', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[2', ' 3]']</t>
-  </si>
-  <si>
-    <t>['[2', ' 5', ' 3', ' 1', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[2', ' 4', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[5', ' 2', ' 4', ' 1]']</t>
-  </si>
-  <si>
-    <t>['[4', ' 3', ' 1', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[1', ' 3', ' 2]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 1', ' 5', ' 2', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 5', ' 1', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 5', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[2', ' 1', ' 4]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 1]']</t>
-  </si>
-  <si>
-    <t>['[3', ' 4', ' 5]']</t>
-  </si>
-  <si>
-    <t>['[3']</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>L,a,b, ,1</t>
@@ -832,10 +823,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -852,13 +843,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -878,7 +869,7 @@
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -892,13 +883,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -918,7 +909,7 @@
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -989,19 +980,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1009,19 +1000,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1059,19 +1050,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1079,19 +1070,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1139,19 +1130,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1261,69 +1252,69 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O2" t="s">
         <v>66</v>
       </c>
-      <c r="I2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" t="s">
-        <v>108</v>
-      </c>
-      <c r="O2" t="s">
-        <v>67</v>
-      </c>
       <c r="P2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q2" t="s">
+        <v>115</v>
+      </c>
+      <c r="R2" t="s">
         <v>117</v>
       </c>
-      <c r="R2" t="s">
-        <v>119</v>
-      </c>
       <c r="S2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="T2" t="s">
-        <v>129</v>
+        <v>12</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="V2">
         <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1332,69 +1323,66 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="N3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="O3" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="P3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="Q3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="R3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s">
-        <v>125</v>
-      </c>
-      <c r="T3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1403,69 +1391,66 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L4" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" t="s">
+        <v>66</v>
+      </c>
+      <c r="O4" t="s">
+        <v>109</v>
+      </c>
+      <c r="P4" t="s">
         <v>99</v>
       </c>
-      <c r="M4" t="s">
-        <v>88</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>112</v>
-      </c>
-      <c r="P4" t="s">
-        <v>102</v>
-      </c>
       <c r="Q4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="R4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="S4" t="s">
+        <v>124</v>
+      </c>
+      <c r="U4" t="s">
         <v>126</v>
-      </c>
-      <c r="T4" t="s">
-        <v>129</v>
-      </c>
-      <c r="U4" t="s">
-        <v>59</v>
       </c>
       <c r="V4">
         <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1474,69 +1459,66 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P5" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" t="s">
         <v>89</v>
       </c>
-      <c r="L5" t="s">
-        <v>100</v>
-      </c>
-      <c r="M5" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" t="s">
-        <v>102</v>
-      </c>
-      <c r="P5" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>90</v>
-      </c>
       <c r="R5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" t="s">
-        <v>129</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="V5">
         <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1545,69 +1527,66 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
         <v>87</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
         <v>88</v>
       </c>
-      <c r="L6" t="s">
-        <v>101</v>
-      </c>
-      <c r="M6" t="s">
-        <v>106</v>
-      </c>
-      <c r="N6" t="s">
-        <v>88</v>
-      </c>
-      <c r="O6" t="s">
-        <v>89</v>
-      </c>
       <c r="P6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="R6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S6" t="s">
-        <v>74</v>
-      </c>
-      <c r="T6" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="V6">
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1616,69 +1595,66 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S7" t="s">
-        <v>127</v>
-      </c>
-      <c r="T7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="V7">
         <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1687,69 +1663,66 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M8" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>110</v>
+      </c>
+      <c r="P8" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" t="s">
         <v>88</v>
       </c>
-      <c r="K8" t="s">
-        <v>94</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="s">
-        <v>107</v>
-      </c>
-      <c r="N8" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>118</v>
-      </c>
-      <c r="R8" t="s">
-        <v>89</v>
-      </c>
       <c r="S8" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1758,58 +1731,55 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P9" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q9" t="s">
         <v>73</v>
       </c>
-      <c r="I9" t="s">
-        <v>81</v>
-      </c>
-      <c r="J9" t="s">
-        <v>89</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" t="s">
-        <v>103</v>
-      </c>
-      <c r="M9" t="s">
-        <v>67</v>
-      </c>
-      <c r="N9" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" t="s">
-        <v>113</v>
-      </c>
-      <c r="P9" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>74</v>
-      </c>
       <c r="R9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="S9" t="s">
-        <v>86</v>
-      </c>
-      <c r="T9" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="V9">
         <v>3</v>
       </c>
       <c r="W9" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1820,7 +1790,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1829,69 +1799,66 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="M10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S10" t="s">
-        <v>59</v>
-      </c>
-      <c r="T10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="V10">
         <v>3</v>
       </c>
       <c r="W10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B11">
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1900,58 +1867,55 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="O11" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="P11" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S11" t="s">
-        <v>128</v>
-      </c>
-      <c r="T11" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -1992,10 +1956,10 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -2009,19 +1973,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2029,19 +1993,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2049,19 +2013,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2072,13 +2036,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -2109,19 +2073,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2149,19 +2113,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2169,19 +2133,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2225,7 +2189,7 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -2239,19 +2203,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2259,19 +2223,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2279,19 +2243,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2299,19 +2263,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2339,19 +2303,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E8" t="s">
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2379,19 +2343,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2399,19 +2363,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2469,19 +2433,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2489,19 +2453,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2509,19 +2473,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2529,19 +2493,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2609,19 +2573,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2629,19 +2593,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2699,19 +2663,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2719,19 +2683,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2739,19 +2703,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2759,19 +2723,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2839,19 +2803,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2859,19 +2823,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2909,19 +2873,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2929,19 +2893,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2989,19 +2953,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3039,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3059,19 +3023,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3119,19 +3083,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3169,19 +3133,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3189,19 +3153,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3249,19 +3213,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -3299,19 +3263,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3319,19 +3283,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3379,19 +3343,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="140">
   <si>
     <t>Monday</t>
   </si>
@@ -44,6 +44,9 @@
     <t>Course 1</t>
   </si>
   <si>
+    <t>Course 2</t>
+  </si>
+  <si>
     <t>Course 3</t>
   </si>
   <si>
@@ -59,48 +62,45 @@
     <t>Course 7</t>
   </si>
   <si>
+    <t>17:00:00</t>
+  </si>
+  <si>
     <t>Course 8</t>
   </si>
   <si>
-    <t>Course 2</t>
-  </si>
-  <si>
-    <t>17:00:00</t>
-  </si>
-  <si>
     <t>Course 9</t>
   </si>
   <si>
     <t>Course 10</t>
   </si>
   <si>
+    <t>15:00:00</t>
+  </si>
+  <si>
+    <t>8:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
     <t>13:00:00</t>
   </si>
   <si>
     <t>14:00:00</t>
   </si>
   <si>
-    <t>15:00:00</t>
-  </si>
-  <si>
-    <t>8:00:00</t>
+    <t>16:00:00</t>
+  </si>
+  <si>
+    <t>9:00:00</t>
   </si>
   <si>
     <t>11:00:00</t>
   </si>
   <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>16:00:00</t>
-  </si>
-  <si>
     <t>10:00:00</t>
   </si>
   <si>
-    <t>9:00:00</t>
-  </si>
-  <si>
     <t>Course Name</t>
   </si>
   <si>
@@ -176,49 +176,52 @@
     <t>Tut Rooms</t>
   </si>
   <si>
-    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdcba50&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdcba50&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdcba50&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc92d0&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc92d0&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc92d0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc9ad0&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc9ad0&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc9ad0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdd0290&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdd0290&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdd0290&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ab90&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ab90&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ab90&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ad90&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ad90&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ad90&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc73150&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc73150&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc73150&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc95f10&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc95f10&gt;]}], ['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc95f10&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc34d0&gt;]}], ['Tuesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc34d0&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc34d0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdcba50&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc8610&gt;, &lt;classes.Course object at 0x7c7bebdc92d0&gt;, &lt;classes.Course object at 0x7c7bebc6ab90&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdc9ad0&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebdd0290&gt;, &lt;classes.Course object at 0x7c7bebc73150&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc6ad90&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7c7bebc95f10&gt;, &lt;classes.Course object at 0x7c7bebdc34d0&gt;]}</t>
+    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db57990&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db57990&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db57990&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db55b10&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db55b10&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db55b10&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db54750&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db54750&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db54750&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db4bc10&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db4bc10&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db4bc10&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5c650&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5c650&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5c650&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5d110&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5d110&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5d110&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5db50&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5db50&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5db50&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5e5d0&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5e5d0&gt;]}], ['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5e5d0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5ed90&gt;]}], ['Tuesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5ed90&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5ed90&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5f610&gt;]}], ['Thursday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5f610&gt;]}], ['Tuesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5f610&gt;]}]]</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db57990&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db55b10&gt;, &lt;classes.Course object at 0x7ded1db54750&gt;, &lt;classes.Course object at 0x7ded1db5ed90&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db4bc10&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5c650&gt;, &lt;classes.Course object at 0x7ded1db5d110&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5db50&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5e5d0&gt;, &lt;classes.Course object at 0x7ded1db5f610&gt;]}</t>
   </si>
   <si>
     <t>['[5', ' 1', ' 3', ' 4]']</t>
@@ -402,6 +405,12 @@
   </si>
   <si>
     <t>['[3', ' 4', ' 5]']</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Course 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>[]</t>
@@ -823,16 +832,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -843,13 +852,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
@@ -863,13 +872,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -883,13 +892,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -903,13 +912,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -923,13 +932,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -943,13 +952,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>10</v>
@@ -963,13 +972,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -980,19 +989,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1000,19 +1009,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1050,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1070,19 +1079,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1090,19 +1099,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1110,19 +1119,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1130,19 +1139,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1252,69 +1261,69 @@
         <v>50</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
         <v>74</v>
       </c>
-      <c r="J2" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" t="s">
-        <v>73</v>
-      </c>
       <c r="L2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="R2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="T2" t="s">
-        <v>12</v>
+        <v>127</v>
       </c>
       <c r="U2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V2">
         <v>3</v>
       </c>
       <c r="W2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1323,66 +1332,69 @@
         <v>50</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="R3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="S3" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="T3" t="s">
+        <v>128</v>
       </c>
       <c r="U3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V3">
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1391,66 +1403,69 @@
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4">
         <v>3</v>
       </c>
       <c r="H4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" t="s">
+        <v>77</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" t="s">
         <v>67</v>
       </c>
-      <c r="I4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L4" t="s">
-        <v>96</v>
-      </c>
-      <c r="M4" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" t="s">
-        <v>66</v>
-      </c>
       <c r="O4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S4" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="T4" t="s">
+        <v>128</v>
       </c>
       <c r="U4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V4">
         <v>4</v>
       </c>
       <c r="W4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1459,66 +1474,69 @@
         <v>50</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
+        <v>86</v>
+      </c>
+      <c r="K5" t="s">
+        <v>89</v>
+      </c>
+      <c r="L5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N5" t="s">
         <v>85</v>
       </c>
-      <c r="K5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L5" t="s">
-        <v>97</v>
-      </c>
-      <c r="M5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" t="s">
-        <v>84</v>
-      </c>
       <c r="O5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S5" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="T5" t="s">
+        <v>128</v>
       </c>
       <c r="U5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V5">
         <v>2</v>
       </c>
       <c r="W5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -1527,66 +1545,69 @@
         <v>50</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G6">
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="O6" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q6" t="s">
         <v>88</v>
       </c>
-      <c r="P6" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>87</v>
-      </c>
       <c r="R6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="S6" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="T6" t="s">
+        <v>128</v>
       </c>
       <c r="U6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V6">
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7">
         <v>3</v>
@@ -1595,66 +1616,69 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
         <v>73</v>
       </c>
-      <c r="M7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N7" t="s">
-        <v>99</v>
-      </c>
-      <c r="O7" t="s">
-        <v>72</v>
-      </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="R7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S7" t="s">
-        <v>125</v>
+        <v>126</v>
+      </c>
+      <c r="T7" t="s">
+        <v>128</v>
       </c>
       <c r="U7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V7">
         <v>3</v>
       </c>
       <c r="W7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1663,66 +1687,69 @@
         <v>50</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8">
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S8" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="T8" t="s">
+        <v>128</v>
       </c>
       <c r="U8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V8">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1731,55 +1758,58 @@
         <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G9">
         <v>2</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S9" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="T9" t="s">
+        <v>128</v>
       </c>
       <c r="U9" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V9">
         <v>3</v>
       </c>
       <c r="W9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:25">
@@ -1790,7 +1820,7 @@
         <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -1799,55 +1829,58 @@
         <v>50</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J10" t="s">
+        <v>90</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
         <v>89</v>
       </c>
-      <c r="K10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L10" t="s">
-        <v>88</v>
-      </c>
       <c r="M10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="N10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S10" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="T10" t="s">
+        <v>128</v>
       </c>
       <c r="U10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V10">
         <v>3</v>
       </c>
       <c r="W10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:25">
@@ -1858,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1867,55 +1900,58 @@
         <v>50</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" t="s">
+        <v>74</v>
+      </c>
+      <c r="N11" t="s">
+        <v>108</v>
+      </c>
+      <c r="O11" t="s">
         <v>89</v>
       </c>
-      <c r="L11" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" t="s">
-        <v>107</v>
-      </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>88</v>
       </c>
-      <c r="P11" t="s">
-        <v>87</v>
-      </c>
       <c r="Q11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S11" t="s">
-        <v>124</v>
+        <v>125</v>
+      </c>
+      <c r="T11" t="s">
+        <v>128</v>
       </c>
       <c r="U11" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -1956,16 +1992,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1973,19 +2009,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1993,19 +2029,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2013,19 +2049,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2036,13 +2072,13 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -2056,13 +2092,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -2073,19 +2109,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2093,19 +2129,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2113,19 +2149,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2133,19 +2169,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2183,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2203,19 +2239,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2223,19 +2259,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2243,19 +2279,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2263,19 +2299,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2286,13 +2322,13 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
         <v>9</v>
@@ -2303,19 +2339,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2323,19 +2359,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2343,19 +2379,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2363,19 +2399,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2413,19 +2449,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2433,19 +2469,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2453,19 +2489,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2473,19 +2509,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2493,19 +2529,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2513,19 +2549,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2533,19 +2569,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2553,19 +2589,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2573,19 +2609,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2593,19 +2629,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2643,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2663,19 +2699,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2683,19 +2719,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2703,19 +2739,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2723,19 +2759,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2743,19 +2779,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2763,19 +2799,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2783,19 +2819,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2803,19 +2839,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2823,19 +2859,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2873,19 +2909,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2893,19 +2929,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2913,19 +2949,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2933,19 +2969,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2953,19 +2989,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3003,19 +3039,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3023,19 +3059,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3043,19 +3079,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3063,19 +3099,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3083,19 +3119,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3133,19 +3169,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3153,19 +3189,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3173,19 +3209,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3193,19 +3229,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3213,19 +3249,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3263,19 +3299,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3283,19 +3319,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3303,19 +3339,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3323,19 +3359,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3343,19 +3379,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -74,30 +74,30 @@
     <t>Course 10</t>
   </si>
   <si>
+    <t>8:00:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
     <t>15:00:00</t>
   </si>
   <si>
-    <t>8:00:00</t>
-  </si>
-  <si>
-    <t>12:00:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
     <t>16:00:00</t>
   </si>
   <si>
     <t>9:00:00</t>
   </si>
   <si>
-    <t>11:00:00</t>
-  </si>
-  <si>
     <t>10:00:00</t>
   </si>
   <si>
@@ -176,52 +176,52 @@
     <t>Tut Rooms</t>
   </si>
   <si>
-    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db57990&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db57990&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db57990&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db55b10&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db55b10&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db55b10&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db54750&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db54750&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db54750&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db4bc10&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db4bc10&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db4bc10&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5c650&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5c650&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5c650&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5d110&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5d110&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5d110&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5db50&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5db50&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5db50&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5e5d0&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5e5d0&gt;]}], ['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5e5d0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5ed90&gt;]}], ['Tuesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5ed90&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5ed90&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5f610&gt;]}], ['Thursday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5f610&gt;]}], ['Tuesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5f610&gt;]}]]</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db57990&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db55b10&gt;, &lt;classes.Course object at 0x7ded1db54750&gt;, &lt;classes.Course object at 0x7ded1db5ed90&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db4bc10&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5c650&gt;, &lt;classes.Course object at 0x7ded1db5d110&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5db50&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7ded1db5e5d0&gt;, &lt;classes.Course object at 0x7ded1db5f610&gt;]}</t>
+    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f530&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f530&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f530&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691e930&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691e930&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691e930&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f320&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f320&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f320&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691ed80&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691ed80&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691ed80&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f2f0&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f2f0&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f2f0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348c0&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348c0&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348c0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934320&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934320&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934320&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348f0&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348f0&gt;]}], ['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348f0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934ec0&gt;]}], ['Tuesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934ec0&gt;]}], ['Tuesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934ec0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6935490&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6935490&gt;]}], ['Tuesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6935490&gt;]}]]</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f530&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691e930&gt;, &lt;classes.Course object at 0x7a18b691f320&gt;, &lt;classes.Course object at 0x7a18b6934ec0&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691ed80&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f2f0&gt;, &lt;classes.Course object at 0x7a18b69348c0&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934320&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348f0&gt;, &lt;classes.Course object at 0x7a18b6935490&gt;]}</t>
   </si>
   <si>
     <t>['[5', ' 1', ' 3', ' 4]']</t>
@@ -838,10 +838,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -872,13 +872,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -892,13 +892,13 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
@@ -932,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -972,13 +972,13 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>11</v>
@@ -998,10 +998,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1079,19 +1079,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1119,19 +1119,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1998,10 +1998,10 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2009,19 +2009,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2032,13 +2032,13 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>6</v>
@@ -2049,19 +2049,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2092,7 +2092,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2129,19 +2129,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2158,10 +2158,10 @@
         <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2219,19 +2219,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2239,19 +2239,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2262,13 +2262,13 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>24</v>
@@ -2279,19 +2279,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2322,7 +2322,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -2359,19 +2359,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2388,10 +2388,10 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2449,19 +2449,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2469,19 +2469,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2509,19 +2509,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2589,19 +2589,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2618,10 +2618,10 @@
         <v>15</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2699,19 +2699,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2739,19 +2739,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2819,19 +2819,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2842,16 +2842,16 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2909,19 +2909,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2929,19 +2929,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2969,19 +2969,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3039,19 +3039,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3059,19 +3059,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3099,19 +3099,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3169,19 +3169,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3189,19 +3189,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3229,19 +3229,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3299,19 +3299,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3319,19 +3319,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3359,19 +3359,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/output.xlsx
+++ b/output.xlsx
@@ -176,52 +176,52 @@
     <t>Tut Rooms</t>
   </si>
   <si>
-    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f530&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f530&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f530&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691e930&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691e930&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691e930&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f320&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f320&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f320&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691ed80&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691ed80&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691ed80&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f2f0&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f2f0&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f2f0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348c0&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348c0&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348c0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934320&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934320&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934320&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348f0&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348f0&gt;]}], ['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348f0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934ec0&gt;]}], ['Tuesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934ec0&gt;]}], ['Tuesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934ec0&gt;]}]]</t>
-  </si>
-  <si>
-    <t>[['Tuesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6935490&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6935490&gt;]}], ['Tuesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6935490&gt;]}]]</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f530&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691e930&gt;, &lt;classes.Course object at 0x7a18b691f320&gt;, &lt;classes.Course object at 0x7a18b6934ec0&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691ed80&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7a18b691f2f0&gt;, &lt;classes.Course object at 0x7a18b69348c0&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7a18b6934320&gt;]}</t>
-  </si>
-  <si>
-    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7a18b69348f0&gt;, &lt;classes.Course object at 0x7a18b6935490&gt;]}</t>
+    <t>[['Monday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x70780909fa40&gt;]}], ['Wednesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x70780909fa40&gt;]}], ['Friday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x70780909fa40&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x70780909efc0&gt;]}], ['Wednesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x70780909efc0&gt;]}], ['Friday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x70780909efc0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x70780909f080&gt;]}], ['Wednesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x70780909f080&gt;]}], ['Friday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x70780909f080&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7078090ac2c0&gt;]}], ['Wednesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7078090ac2c0&gt;]}], ['Friday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7078090ac2c0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7078090ac7a0&gt;]}], ['Wednesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7078090ac7a0&gt;]}], ['Friday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7078090ac7a0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7078090acd40&gt;]}], ['Wednesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7078090acd40&gt;]}], ['Friday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7078090acd40&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Monday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7078090ad2e0&gt;]}], ['Wednesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7078090ad2e0&gt;]}], ['Friday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7078090ad2e0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7078090ad8b0&gt;]}], ['Thursday', {'start_time': '09:00:00', 'end_time': '10:00:00', 'courses': [&lt;classes.Course object at 0x7078090ad8b0&gt;]}], ['Tuesday', {'start_time': '11:00:00', 'end_time': '12:00:00', 'courses': [&lt;classes.Course object at 0x7078090ad8b0&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7078090adc70&gt;]}], ['Tuesday', {'start_time': '12:00:00', 'end_time': '13:00:00', 'courses': [&lt;classes.Course object at 0x7078090adc70&gt;]}], ['Tuesday', {'start_time': '13:00:00', 'end_time': '14:00:00', 'courses': [&lt;classes.Course object at 0x7078090adc70&gt;]}]]</t>
+  </si>
+  <si>
+    <t>[['Tuesday', {'start_time': '14:00:00', 'end_time': '15:00:00', 'courses': [&lt;classes.Course object at 0x7078090ae090&gt;]}], ['Thursday', {'start_time': '10:00:00', 'end_time': '11:00:00', 'courses': [&lt;classes.Course object at 0x7078090ae090&gt;]}], ['Tuesday', {'start_time': '15:00:00', 'end_time': '16:00:00', 'courses': [&lt;classes.Course object at 0x7078090ae090&gt;]}]]</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x70780909fa40&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x70780909efc0&gt;, &lt;classes.Course object at 0x70780909f080&gt;, &lt;classes.Course object at 0x7078090adc70&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7078090ac2c0&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7078090ac7a0&gt;, &lt;classes.Course object at 0x7078090acd40&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '08:00:00', 'end_time': '09:00:00', 'courses': [&lt;classes.Course object at 0x7078090ad2e0&gt;]}</t>
+  </si>
+  <si>
+    <t>{'start_time': '16:00:00', 'end_time': '17:00:00', 'courses': [&lt;classes.Course object at 0x7078090ad8b0&gt;, &lt;classes.Course object at 0x7078090ae090&gt;]}</t>
   </si>
   <si>
     <t>['[5', ' 1', ' 3', ' 4]']</t>
